--- a/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -788,42 +788,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.82421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.9140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -135,7 +135,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>fhirpath:Composition</t>
+    <t>element:Composition</t>
   </si>
   <si>
     <t>ID</t>
@@ -788,42 +788,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.9140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.82421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,7 +444,7 @@
     <t>Extension.extension:ch-orf-personorganization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -788,42 +788,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.82421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.14453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-initiator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1248,7 +1248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>124</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>132</v>
       </c>
@@ -3011,12 +3011,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK21">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
